--- a/program_directory/interpreterAccounting/万科A：2018年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/万科A：2018年年度报告.xlsx
@@ -5,24 +5,1727 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
     <sheet name="现金流量表补充资料" sheetId="9" r:id="rId2"/>
     <sheet name="合并资产负债表" sheetId="10" r:id="rId3"/>
+    <sheet name="合并利润表" sheetId="11" r:id="rId4"/>
+    <sheet name="合并现金流量表" sheetId="12" r:id="rId5"/>
+    <sheet name="合并所有者权益变动表" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="565">
+  <si>
+    <t>土地使用权</t>
+  </si>
+  <si>
+    <t>特许经营权</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>合计</t>
+  </si>
+  <si>
+    <t>账面原值</t>
+  </si>
+  <si>
+    <t>年初余额</t>
+  </si>
+  <si>
+    <t>588,584,824.30</t>
+  </si>
+  <si>
+    <t>690,659,300.76</t>
+  </si>
+  <si>
+    <t>699,722,264.01</t>
+  </si>
+  <si>
+    <t>1,978,966,389.07</t>
+  </si>
+  <si>
+    <t>本年增加</t>
+  </si>
+  <si>
+    <t>3,137,285,819.89</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>81,949,780.32</t>
+  </si>
+  <si>
+    <t>3,219,235,600.21</t>
+  </si>
+  <si>
+    <t>本年减少</t>
+  </si>
+  <si>
+    <t>(14,121,730.38)</t>
+  </si>
+  <si>
+    <t>合并范围变化</t>
+  </si>
+  <si>
+    <t>662,522,339.43</t>
+  </si>
+  <si>
+    <t>18,277,706.78</t>
+  </si>
+  <si>
+    <t>680,800,046.21</t>
+  </si>
+  <si>
+    <t>年末余额</t>
+  </si>
+  <si>
+    <t>4,388,392,983.62</t>
+  </si>
+  <si>
+    <t>676,537,570.38</t>
+  </si>
+  <si>
+    <t>799,949,751.11</t>
+  </si>
+  <si>
+    <t>5,864,880,305.11</t>
+  </si>
+  <si>
+    <t>累计摊销</t>
+  </si>
+  <si>
+    <t>82,785,164.51</t>
+  </si>
+  <si>
+    <t>305,828,761.82</t>
+  </si>
+  <si>
+    <t>152,847,615.20</t>
+  </si>
+  <si>
+    <t>541,461,541.53</t>
+  </si>
+  <si>
+    <t>109,738,406.15</t>
+  </si>
+  <si>
+    <t>69,077,818.08</t>
+  </si>
+  <si>
+    <t>99,729,809.66</t>
+  </si>
+  <si>
+    <t>278,546,033.89</t>
+  </si>
+  <si>
+    <t>83,127,594.54</t>
+  </si>
+  <si>
+    <t>9,160,136.11</t>
+  </si>
+  <si>
+    <t>92,287,730.65</t>
+  </si>
+  <si>
+    <t>275,651,165.20</t>
+  </si>
+  <si>
+    <t>374,906,579.90</t>
+  </si>
+  <si>
+    <t>261,737,560.97</t>
+  </si>
+  <si>
+    <t>912,295,306.07</t>
+  </si>
+  <si>
+    <t>账面价值</t>
+  </si>
+  <si>
+    <t>年末账面价值</t>
+  </si>
+  <si>
+    <t>4,112,741,818.42</t>
+  </si>
+  <si>
+    <t>301,630,990.48</t>
+  </si>
+  <si>
+    <t>538,212,190.14</t>
+  </si>
+  <si>
+    <t>4,952,584,999.04</t>
+  </si>
+  <si>
+    <t>年初账面价值</t>
+  </si>
+  <si>
+    <t>505,799,659.79</t>
+  </si>
+  <si>
+    <t>384,830,538.94</t>
+  </si>
+  <si>
+    <t>546,874,648.81</t>
+  </si>
+  <si>
+    <t>1,437,504,847.54</t>
+  </si>
+  <si>
+    <t>2018年</t>
+  </si>
+  <si>
+    <t>2017年</t>
+  </si>
+  <si>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t>49,272,294,534.61</t>
+  </si>
+  <si>
+    <t>37,208,387,330.07</t>
+  </si>
+  <si>
+    <t>加：资产减值损失</t>
+  </si>
+  <si>
+    <t>2,354,254,781.00</t>
+  </si>
+  <si>
+    <t>1,318,741,210.19</t>
+  </si>
+  <si>
+    <t>信用减值损失</t>
+  </si>
+  <si>
+    <t>263,817,478.04</t>
+  </si>
+  <si>
+    <t>固定资产及投资性房地产的折旧</t>
+  </si>
+  <si>
+    <t>1,697,226,314.44</t>
+  </si>
+  <si>
+    <t>1,101,115,390.47</t>
+  </si>
+  <si>
+    <t>无形资产及长期待摊费用摊销</t>
+  </si>
+  <si>
+    <t>1,224,709,856.56</t>
+  </si>
+  <si>
+    <t>827,922,691.54</t>
+  </si>
+  <si>
+    <t>处置固定资产的净损失</t>
+  </si>
+  <si>
+    <t>3,409,185.58</t>
+  </si>
+  <si>
+    <t>4,915,545.41</t>
+  </si>
+  <si>
+    <t>财务费用</t>
+  </si>
+  <si>
+    <t>5,998,574,652.64</t>
+  </si>
+  <si>
+    <t>2,075,256,781.28</t>
+  </si>
+  <si>
+    <t>投资收益</t>
+  </si>
+  <si>
+    <t>(6,787,934,513.16)</t>
+  </si>
+  <si>
+    <t>(6,244,561,688.39)</t>
+  </si>
+  <si>
+    <t>公允价值变动收益</t>
+  </si>
+  <si>
+    <t>(86,634,641.18)</t>
+  </si>
+  <si>
+    <t>递延所得税资产增加</t>
+  </si>
+  <si>
+    <t>(5,846,638,660.54)</t>
+  </si>
+  <si>
+    <t>(2,443,367,185.85)</t>
+  </si>
+  <si>
+    <t>递延所得税负债减少</t>
+  </si>
+  <si>
+    <t>(511,824,466.42)</t>
+  </si>
+  <si>
+    <t>(110,968,146.63)</t>
+  </si>
+  <si>
+    <t>存货的增加</t>
+  </si>
+  <si>
+    <t>(111,125,482,849.95)</t>
+  </si>
+  <si>
+    <t>(106,024,834,484.88)</t>
+  </si>
+  <si>
+    <t>经营性应收项目的增加</t>
+  </si>
+  <si>
+    <t>(90,870,839,029.07)</t>
+  </si>
+  <si>
+    <t>(80,036,035,141.42)</t>
+  </si>
+  <si>
+    <t>经营性应付项目的增加</t>
+  </si>
+  <si>
+    <t>188,033,250,745.97</t>
+  </si>
+  <si>
+    <t>234,646,261,914.71</t>
+  </si>
+  <si>
+    <t>经营活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>33,618,183,388.52</t>
+  </si>
+  <si>
+    <t>82,322,834,216.50</t>
+  </si>
+  <si>
+    <t>现金及现金等价物年末余额</t>
+  </si>
+  <si>
+    <t>175,668,163,538.65</t>
+  </si>
+  <si>
+    <t>164,326,007,371.30</t>
+  </si>
+  <si>
+    <t>减：现金及现金等价物年初余额</t>
+  </si>
+  <si>
+    <t>79,490,014,945.69</t>
+  </si>
+  <si>
+    <t>现金及现金等价物净增加额</t>
+  </si>
+  <si>
+    <t>11,342,156,167.35</t>
+  </si>
+  <si>
+    <t>84,835,992,425.61</t>
+  </si>
+  <si>
+    <t>资产</t>
+  </si>
+  <si>
+    <t>附注五</t>
+  </si>
+  <si>
+    <t>2018年12月31日</t>
+  </si>
+  <si>
+    <t>2017年12月31日</t>
+  </si>
+  <si>
+    <t>2017年1月1日</t>
+  </si>
+  <si>
+    <t>流动资产：</t>
+  </si>
+  <si>
+    <t>货币资金</t>
+  </si>
+  <si>
+    <t>188,417,446,836.14</t>
+  </si>
+  <si>
+    <t>174,121,009,199.93</t>
+  </si>
+  <si>
+    <t>87,032,118,210.63</t>
+  </si>
+  <si>
+    <t>交易性金融资产</t>
+  </si>
+  <si>
+    <t>11,900,806,302.82</t>
+  </si>
+  <si>
+    <t>衍生金融资产</t>
+  </si>
+  <si>
+    <t>10,782,930.40</t>
+  </si>
+  <si>
+    <t>12,493,711.40</t>
+  </si>
+  <si>
+    <t>458,671,184.10</t>
+  </si>
+  <si>
+    <t>应收票据及应收账款</t>
+  </si>
+  <si>
+    <t>1,588,739,194.82</t>
+  </si>
+  <si>
+    <t>1,432,734,013.84</t>
+  </si>
+  <si>
+    <t>2,075,256,823.79</t>
+  </si>
+  <si>
+    <t>预付款项</t>
+  </si>
+  <si>
+    <t>75,950,895,073.34</t>
+  </si>
+  <si>
+    <t>68,315,556,602.24</t>
+  </si>
+  <si>
+    <t>50,262,540,606.60</t>
+  </si>
+  <si>
+    <t>其他应收款</t>
+  </si>
+  <si>
+    <t>244,324,142,938.75</t>
+  </si>
+  <si>
+    <t>163,249,765,907.66</t>
+  </si>
+  <si>
+    <t>105,435,004,894.59</t>
+  </si>
+  <si>
+    <t>存货</t>
+  </si>
+  <si>
+    <t>750,302,627,438.80</t>
+  </si>
+  <si>
+    <t>598,087,657,618.33</t>
+  </si>
+  <si>
+    <t>467,361,336,133.57</t>
+  </si>
+  <si>
+    <t>合同资产</t>
+  </si>
+  <si>
+    <t>1,364,126,797.84</t>
+  </si>
+  <si>
+    <t>持有待售资产</t>
+  </si>
+  <si>
+    <t>6,624,631,369.45</t>
+  </si>
+  <si>
+    <t>6,910,171,274.98</t>
+  </si>
+  <si>
+    <t>其他流动资产</t>
+  </si>
+  <si>
+    <t>14,587,657,410.01</t>
+  </si>
+  <si>
+    <t>5,423,443,819.92</t>
+  </si>
+  <si>
+    <t>8,670,500,000.00</t>
+  </si>
+  <si>
+    <t>流动资产合计</t>
+  </si>
+  <si>
+    <t>1,295,071,856,292.37</t>
+  </si>
+  <si>
+    <t>1,017,552,832,148.30</t>
+  </si>
+  <si>
+    <t>721,295,427,853.28</t>
+  </si>
+  <si>
+    <t>非流动资产：</t>
+  </si>
+  <si>
+    <t>可供出售金融资产</t>
+  </si>
+  <si>
+    <t>1,340,749,439.60</t>
+  </si>
+  <si>
+    <t>1,328,014,343.92</t>
+  </si>
+  <si>
+    <t>其他权益工具投资</t>
+  </si>
+  <si>
+    <t>1,636,583,744.09</t>
+  </si>
+  <si>
+    <t>其他非流动金融资产</t>
+  </si>
+  <si>
+    <t>1,052,331,100.20</t>
+  </si>
+  <si>
+    <t>长期股权投资</t>
+  </si>
+  <si>
+    <t>129,527,655,772.47</t>
+  </si>
+  <si>
+    <t>81,224,305,346.59</t>
+  </si>
+  <si>
+    <t>61,701,988,409.62</t>
+  </si>
+  <si>
+    <t>投资性房地产</t>
+  </si>
+  <si>
+    <t>54,055,784,751.50</t>
+  </si>
+  <si>
+    <t>28,811,300,333.55</t>
+  </si>
+  <si>
+    <t>21,874,424,322.70</t>
+  </si>
+  <si>
+    <t>固定资产</t>
+  </si>
+  <si>
+    <t>11,533,798,650.31</t>
+  </si>
+  <si>
+    <t>7,098,808,083.40</t>
+  </si>
+  <si>
+    <t>6,810,793,073.58</t>
+  </si>
+  <si>
+    <t>在建工程</t>
+  </si>
+  <si>
+    <t>1,913,007,479.18</t>
+  </si>
+  <si>
+    <t>1,022,410,893.84</t>
+  </si>
+  <si>
+    <t>765,312,561.26</t>
+  </si>
+  <si>
+    <t>无形资产</t>
+  </si>
+  <si>
+    <t>1,260,363,652.26</t>
+  </si>
+  <si>
+    <t>商誉</t>
+  </si>
+  <si>
+    <t>217,109,245.26</t>
+  </si>
+  <si>
+    <t>206,342,883.92</t>
+  </si>
+  <si>
+    <t>201,689,835.80</t>
+  </si>
+  <si>
+    <t>长期待摊费用</t>
+  </si>
+  <si>
+    <t>5,044,308,633.85</t>
+  </si>
+  <si>
+    <t>2,065,975,906.72</t>
+  </si>
+  <si>
+    <t>960,226,293.11</t>
+  </si>
+  <si>
+    <t>递延所得税资产</t>
+  </si>
+  <si>
+    <t>15,749,204,673.50</t>
+  </si>
+  <si>
+    <t>9,651,001,968.26</t>
+  </si>
+  <si>
+    <t>7,198,532,974.16</t>
+  </si>
+  <si>
+    <t>其他非流动资产</t>
+  </si>
+  <si>
+    <t>7,825,131,133.04</t>
+  </si>
+  <si>
+    <t>14,935,685,952.83</t>
+  </si>
+  <si>
+    <t>7,277,440,604.45</t>
+  </si>
+  <si>
+    <t>非流动资产合计</t>
+  </si>
+  <si>
+    <t>233,507,500,182.44</t>
+  </si>
+  <si>
+    <t>147,794,085,656.25</t>
+  </si>
+  <si>
+    <t>109,378,786,070.86</t>
+  </si>
+  <si>
+    <t>资产总计</t>
+  </si>
+  <si>
+    <t>1,528,579,356,474.81</t>
+  </si>
+  <si>
+    <t>1,165,346,917,804.55</t>
+  </si>
+  <si>
+    <t>830,674,213,924.14</t>
+  </si>
+  <si>
+    <t>流动负债：</t>
+  </si>
+  <si>
+    <t>短期借款</t>
+  </si>
+  <si>
+    <t>10,101,917,384.71</t>
+  </si>
+  <si>
+    <t>16,108,858,651.31</t>
+  </si>
+  <si>
+    <t>16,576,589,202.38</t>
+  </si>
+  <si>
+    <t>衍生金融负债</t>
+  </si>
+  <si>
+    <t>631,226,970.86</t>
+  </si>
+  <si>
+    <t>1,019,940,196.03</t>
+  </si>
+  <si>
+    <t>应付票据及应付账款</t>
+  </si>
+  <si>
+    <t>229,597,382,102.63</t>
+  </si>
+  <si>
+    <t>176,769,585,962.58</t>
+  </si>
+  <si>
+    <t>141,651,401,565.91</t>
+  </si>
+  <si>
+    <t>预收款项</t>
+  </si>
+  <si>
+    <t>253,965,141.13</t>
+  </si>
+  <si>
+    <t>407,705,939,864.83</t>
+  </si>
+  <si>
+    <t>274,645,554,496.88</t>
+  </si>
+  <si>
+    <t>合同负债</t>
+  </si>
+  <si>
+    <t>504,711,414,422.66</t>
+  </si>
+  <si>
+    <t>应付职工薪酬</t>
+  </si>
+  <si>
+    <t>5,770,851,836.95</t>
+  </si>
+  <si>
+    <t>4,930,413,960.98</t>
+  </si>
+  <si>
+    <t>3,839,926,643.43</t>
+  </si>
+  <si>
+    <t>应交税费</t>
+  </si>
+  <si>
+    <t>18,730,860,802.20</t>
+  </si>
+  <si>
+    <t>10,774,906,265.56</t>
+  </si>
+  <si>
+    <t>9,553,084,094.38</t>
+  </si>
+  <si>
+    <t>其他应付款</t>
+  </si>
+  <si>
+    <t>227,431,215,319.93</t>
+  </si>
+  <si>
+    <t>183,881,947,229.77</t>
+  </si>
+  <si>
+    <t>106,958,632,126.34</t>
+  </si>
+  <si>
+    <t>一年内到期的非流动负债</t>
+  </si>
+  <si>
+    <t>69,092,413,016.12</t>
+  </si>
+  <si>
+    <t>46,163,837,744.75</t>
+  </si>
+  <si>
+    <t>26,773,297,333.75</t>
+  </si>
+  <si>
+    <t>其他流动负债</t>
+  </si>
+  <si>
+    <t>55,592,689,788.42</t>
+  </si>
+  <si>
+    <t>流动负债合计</t>
+  </si>
+  <si>
+    <t>1,121,913,936,785.61</t>
+  </si>
+  <si>
+    <t>847,355,429,875.81</t>
+  </si>
+  <si>
+    <t>579,998,485,463.07</t>
+  </si>
+  <si>
+    <t>非流动负债：</t>
+  </si>
+  <si>
+    <t>长期借款</t>
+  </si>
+  <si>
+    <t>120,929,055,439.40</t>
+  </si>
+  <si>
+    <t>96,029,044,735.04</t>
+  </si>
+  <si>
+    <t>56,406,061,283.42</t>
+  </si>
+  <si>
+    <t>应付债券</t>
+  </si>
+  <si>
+    <t>47,095,145,785.83</t>
+  </si>
+  <si>
+    <t>32,322,671,927.21</t>
+  </si>
+  <si>
+    <t>29,108,375,807.96</t>
+  </si>
+  <si>
+    <t>预计负债</t>
+  </si>
+  <si>
+    <t>143,527,842.81</t>
+  </si>
+  <si>
+    <t>159,866,431.34</t>
+  </si>
+  <si>
+    <t>118,672,382.72</t>
+  </si>
+  <si>
+    <t>其他非流动负债</t>
+  </si>
+  <si>
+    <t>2,338,048,204.19</t>
+  </si>
+  <si>
+    <t>2,540,666,010.15</t>
+  </si>
+  <si>
+    <t>2,861,999,502.12</t>
+  </si>
+  <si>
+    <t>递延所得税负债</t>
+  </si>
+  <si>
+    <t>538,912,419.39</t>
+  </si>
+  <si>
+    <t>265,299,666.71</t>
+  </si>
+  <si>
+    <t>504,048,203.85</t>
+  </si>
+  <si>
+    <t>非流动负债合计</t>
+  </si>
+  <si>
+    <t>171,044,689,691.62</t>
+  </si>
+  <si>
+    <t>131,317,548,770.45</t>
+  </si>
+  <si>
+    <t>88,999,157,180.07</t>
+  </si>
+  <si>
+    <t>负债合计</t>
+  </si>
+  <si>
+    <t>1,292,958,626,477.23</t>
+  </si>
+  <si>
+    <t>978,672,978,646.26</t>
+  </si>
+  <si>
+    <t>668,997,642,643.14</t>
+  </si>
+  <si>
+    <t>股东权益：</t>
+  </si>
+  <si>
+    <t>股本</t>
+  </si>
+  <si>
+    <t>11,039,152,001.00</t>
+  </si>
+  <si>
+    <t>资本公积</t>
+  </si>
+  <si>
+    <t>8,005,627,653.57</t>
+  </si>
+  <si>
+    <t>8,329,263,089.01</t>
+  </si>
+  <si>
+    <t>8,268,267,782.15</t>
+  </si>
+  <si>
+    <t>其他综合收益</t>
+  </si>
+  <si>
+    <t>(2,398,744,899.34)</t>
+  </si>
+  <si>
+    <t>234,977,764.41</t>
+  </si>
+  <si>
+    <t>396,309,302.16</t>
+  </si>
+  <si>
+    <t>盈余公积</t>
+  </si>
+  <si>
+    <t>47,393,246,041.44</t>
+  </si>
+  <si>
+    <t>35,900,071,829.04</t>
+  </si>
+  <si>
+    <t>32,540,767,833.97</t>
+  </si>
+  <si>
+    <t>未分配利润</t>
+  </si>
+  <si>
+    <t>91,724,850,747.76</t>
+  </si>
+  <si>
+    <t>77,171,850,609.87</t>
+  </si>
+  <si>
+    <t>61,200,269,803.37</t>
+  </si>
+  <si>
+    <t>归属于母公司股东权益合计</t>
+  </si>
+  <si>
+    <t>155,764,131,544.43</t>
+  </si>
+  <si>
+    <t>132,675,315,293.33</t>
+  </si>
+  <si>
+    <t>113,444,766,722.65</t>
+  </si>
+  <si>
+    <t>少数股东权益</t>
+  </si>
+  <si>
+    <t>79,856,598,453.15</t>
+  </si>
+  <si>
+    <t>53,998,623,864.96</t>
+  </si>
+  <si>
+    <t>48,231,804,558.35</t>
+  </si>
+  <si>
+    <t>股东权益合计</t>
+  </si>
+  <si>
+    <t>235,620,729,997.58</t>
+  </si>
+  <si>
+    <t>186,673,939,158.29</t>
+  </si>
+  <si>
+    <t>161,676,571,281.00</t>
+  </si>
+  <si>
+    <t>负债和股东权益总计</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>一、营业总收入</t>
+  </si>
+  <si>
+    <t>297,679,331,103.19</t>
+  </si>
+  <si>
+    <t>242,897,110,250.52</t>
+  </si>
+  <si>
+    <t>二、营业总成本</t>
+  </si>
+  <si>
+    <t>237,051,878,549.68</t>
+  </si>
+  <si>
+    <t>198,323,839,985.10</t>
+  </si>
+  <si>
+    <t>其中：营业成本</t>
+  </si>
+  <si>
+    <t>186,104,224,241.81</t>
+  </si>
+  <si>
+    <t>160,079,915,903.43</t>
+  </si>
+  <si>
+    <t>税金及附加</t>
+  </si>
+  <si>
+    <t>23,176,062,239.30</t>
+  </si>
+  <si>
+    <t>19,722,230,687.35</t>
+  </si>
+  <si>
+    <t>销售费用</t>
+  </si>
+  <si>
+    <t>7,868,075,611.02</t>
+  </si>
+  <si>
+    <t>6,261,981,320.76</t>
+  </si>
+  <si>
+    <t>管理费用</t>
+  </si>
+  <si>
+    <t>10,340,805,184.61</t>
+  </si>
+  <si>
+    <t>8,252,387,183.61</t>
+  </si>
+  <si>
+    <t>研发费用</t>
+  </si>
+  <si>
+    <t>946,064,361.26</t>
+  </si>
+  <si>
+    <t>613,326,898.48</t>
+  </si>
+  <si>
+    <t>其中：利息费用</t>
+  </si>
+  <si>
+    <t>8,181,335,589.90</t>
+  </si>
+  <si>
+    <t>4,060,732,058.91</t>
+  </si>
+  <si>
+    <t>利息收入</t>
+  </si>
+  <si>
+    <t>3,839,923,292.95</t>
+  </si>
+  <si>
+    <t>2,502,616,718.59</t>
+  </si>
+  <si>
+    <t>资产减值损失</t>
+  </si>
+  <si>
+    <t>加：投资收益</t>
+  </si>
+  <si>
+    <t>6,787,934,513.16</t>
+  </si>
+  <si>
+    <t>6,244,561,688.39</t>
+  </si>
+  <si>
+    <t>其中：对联营企业和合营企业的投资收益</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>6,279,910,444.74</t>
+  </si>
+  <si>
+    <t>4,569,160,048.02</t>
+  </si>
+  <si>
+    <t>公允价值变动收益(损失以“-”填列)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>86,634,641.18</t>
+  </si>
+  <si>
+    <t>资产处置收益(损失以“-”填列)</t>
+  </si>
+  <si>
+    <t>(3,409,185.58)</t>
+  </si>
+  <si>
+    <t>(4,915,545.41)</t>
+  </si>
+  <si>
+    <t>三、营业利润</t>
+  </si>
+  <si>
+    <t>67,498,612,522.27</t>
+  </si>
+  <si>
+    <t>50,812,916,408.40</t>
+  </si>
+  <si>
+    <t>加：营业外收入</t>
+  </si>
+  <si>
+    <t>474,497,187.13</t>
+  </si>
+  <si>
+    <t>723,287,994.91</t>
+  </si>
+  <si>
+    <t>减：营业外支出</t>
+  </si>
+  <si>
+    <t>512,908,318.42</t>
+  </si>
+  <si>
+    <t>394,251,737.90</t>
+  </si>
+  <si>
+    <t>四、利润总额</t>
+  </si>
+  <si>
+    <t>67,460,201,390.98</t>
+  </si>
+  <si>
+    <t>51,141,952,665.41</t>
+  </si>
+  <si>
+    <t>减：所得税费用</t>
+  </si>
+  <si>
+    <t>18,187,906,856.37</t>
+  </si>
+  <si>
+    <t>13,933,565,335.34</t>
+  </si>
+  <si>
+    <t>五、净利润</t>
+  </si>
+  <si>
+    <t>归属于母公司股东的净利润</t>
+  </si>
+  <si>
+    <t>33,772,651,678.61</t>
+  </si>
+  <si>
+    <t>28,051,814,882.36</t>
+  </si>
+  <si>
+    <t>少数股东损益</t>
+  </si>
+  <si>
+    <t>15,499,642,856.00</t>
+  </si>
+  <si>
+    <t>9,156,572,447.71</t>
+  </si>
+  <si>
+    <t>六、每股收益</t>
+  </si>
+  <si>
+    <t>(一)基本每股收益</t>
+  </si>
+  <si>
+    <t>(二)稀释每股收益</t>
+  </si>
+  <si>
+    <t>七、其他综合收益的税后净额</t>
+  </si>
+  <si>
+    <t>(2,993,286,093.33)</t>
+  </si>
+  <si>
+    <t>(200,529,284.97)</t>
+  </si>
+  <si>
+    <t>归属于母公司股东的其他综合收益的税后净额</t>
+  </si>
+  <si>
+    <t>(2,631,826,600.64)</t>
+  </si>
+  <si>
+    <t>(161,331,537.75)</t>
+  </si>
+  <si>
+    <t>(一)不能重分类进损益的其他综合收益</t>
+  </si>
+  <si>
+    <t>1其他权益工具投资公允价值变动</t>
+  </si>
+  <si>
+    <t>(373,621,610.49)</t>
+  </si>
+  <si>
+    <t>2.权益法下不能转损益的其他综合收益</t>
+  </si>
+  <si>
+    <t>(723,853,046.45)</t>
+  </si>
+  <si>
+    <t>(二)将重分类进损益的其他综合收益</t>
+  </si>
+  <si>
+    <t>1权益法下可转损益的其他综合收益</t>
+  </si>
+  <si>
+    <t>(1,176,856,149.35)</t>
+  </si>
+  <si>
+    <t>(51,022,240.00)</t>
+  </si>
+  <si>
+    <t>2可供出售金融资产公允价值变动损益</t>
+  </si>
+  <si>
+    <t>110,589,311.43</t>
+  </si>
+  <si>
+    <t>3现金流量套期储备</t>
+  </si>
+  <si>
+    <t>(226,888,525.95)</t>
+  </si>
+  <si>
+    <t>(163,304,028.97)</t>
+  </si>
+  <si>
+    <t>4外币财务报表折算差额</t>
+  </si>
+  <si>
+    <t>(130,607,268.40)</t>
+  </si>
+  <si>
+    <t>(57,594,580.21)</t>
+  </si>
+  <si>
+    <t>归属于少数股东的其他综合收益的税后净额</t>
+  </si>
+  <si>
+    <t>(361,459,492.69)</t>
+  </si>
+  <si>
+    <t>(39,197,747.22)</t>
+  </si>
+  <si>
+    <t>八、综合收益总额</t>
+  </si>
+  <si>
+    <t>46,279,008,441.28</t>
+  </si>
+  <si>
+    <t>37,007,858,045.10</t>
+  </si>
+  <si>
+    <t>归属于母公司股东的综合收益总额</t>
+  </si>
+  <si>
+    <t>31,140,825,077.97</t>
+  </si>
+  <si>
+    <t>27,890,483,344.61</t>
+  </si>
+  <si>
+    <t>归属于少数股东的综合收益总额</t>
+  </si>
+  <si>
+    <t>15,138,183,363.31</t>
+  </si>
+  <si>
+    <t>9,117,374,700.49</t>
+  </si>
+  <si>
+    <t>一、经营活动产生的现金流量</t>
+  </si>
+  <si>
+    <t>销售商品、提供劳务收到的现金</t>
+  </si>
+  <si>
+    <t>398,148,270,444.38</t>
+  </si>
+  <si>
+    <t>368,405,223,395.36</t>
+  </si>
+  <si>
+    <t>收到其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>55(1)</t>
+  </si>
+  <si>
+    <t>25,801,877,348.71</t>
+  </si>
+  <si>
+    <t>43,855,663,432.50</t>
+  </si>
+  <si>
+    <t>经营活动现金流入小计</t>
+  </si>
+  <si>
+    <t>423,950,147,793.09</t>
+  </si>
+  <si>
+    <t>412,260,886,827.86</t>
+  </si>
+  <si>
+    <t>购买商品、接受劳务支付的现金</t>
+  </si>
+  <si>
+    <t>255,895,209,249.65</t>
+  </si>
+  <si>
+    <t>234,876,355,213.08</t>
+  </si>
+  <si>
+    <t>支付给职工以及为职工支付的现金</t>
+  </si>
+  <si>
+    <t>14,118,374,985.27</t>
+  </si>
+  <si>
+    <t>9,243,602,564.22</t>
+  </si>
+  <si>
+    <t>支付的各项税费</t>
+  </si>
+  <si>
+    <t>54,023,459,052.99</t>
+  </si>
+  <si>
+    <t>39,759,746,765.40</t>
+  </si>
+  <si>
+    <t>支付其他与经营活动有关的现金</t>
+  </si>
+  <si>
+    <t>55(2)</t>
+  </si>
+  <si>
+    <t>66,294,921,116.66</t>
+  </si>
+  <si>
+    <t>46,058,348,068.66</t>
+  </si>
+  <si>
+    <t>经营活动现金流出小计</t>
+  </si>
+  <si>
+    <t>390,331,964,404.57</t>
+  </si>
+  <si>
+    <t>329,938,052,611.36</t>
+  </si>
+  <si>
+    <t>56(1)</t>
+  </si>
+  <si>
+    <t>二、投资活动产生的现金流量</t>
+  </si>
+  <si>
+    <t>收回投资收到的现金</t>
+  </si>
+  <si>
+    <t>1,472,713,852.59</t>
+  </si>
+  <si>
+    <t>3,367,297,383.85</t>
+  </si>
+  <si>
+    <t>取得投资收益收到的现金</t>
+  </si>
+  <si>
+    <t>4,536,305,688.81</t>
+  </si>
+  <si>
+    <t>1,251,494,572.60</t>
+  </si>
+  <si>
+    <t>处置固定资产、无形资产、投资性房地产和其他长期资产收回的现金净额</t>
+  </si>
+  <si>
+    <t>47,552,405.61</t>
+  </si>
+  <si>
+    <t>141,605,787.75</t>
+  </si>
+  <si>
+    <t>处置子公司或其他营业单位收到的现金净额</t>
+  </si>
+  <si>
+    <t>56(3)</t>
+  </si>
+  <si>
+    <t>1,843,485,464.33</t>
+  </si>
+  <si>
+    <t>3,191,189,237.68</t>
+  </si>
+  <si>
+    <t>收到其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t>55(3)</t>
+  </si>
+  <si>
+    <t>10,892,356,680.92</t>
+  </si>
+  <si>
+    <t>11,819,981,019.69</t>
+  </si>
+  <si>
+    <t>投资活动现金流入小计</t>
+  </si>
+  <si>
+    <t>18,792,414,092.26</t>
+  </si>
+  <si>
+    <t>19,771,568,001.57</t>
+  </si>
+  <si>
+    <t>购建固定资产、无形资产和其他长期资产所支付的现金</t>
+  </si>
+  <si>
+    <t>5,896,749,487.32</t>
+  </si>
+  <si>
+    <t>2,360,481,196.99</t>
+  </si>
+  <si>
+    <t>投资支付的现金</t>
+  </si>
+  <si>
+    <t>47,295,233,900.40</t>
+  </si>
+  <si>
+    <t>46,833,228,034.38</t>
+  </si>
+  <si>
+    <t>取得子公司及其他营业单位支付的现金净额</t>
+  </si>
+  <si>
+    <t>18,541,696,353.03</t>
+  </si>
+  <si>
+    <t>21,315,728,901.15</t>
+  </si>
+  <si>
+    <t>支付的其他与投资活动有关的现金</t>
+  </si>
+  <si>
+    <t>55(4)</t>
+  </si>
+  <si>
+    <t>14,423,170,381.37</t>
+  </si>
+  <si>
+    <t>875,362,911.56</t>
+  </si>
+  <si>
+    <t>投资活动现金流出小计</t>
+  </si>
+  <si>
+    <t>86,156,850,122.12</t>
+  </si>
+  <si>
+    <t>71,384,801,044.08</t>
+  </si>
+  <si>
+    <t>投资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>(67,364,436,029.86)</t>
+  </si>
+  <si>
+    <t>(51,613,233,042.51)</t>
+  </si>
+  <si>
+    <t>三、筹资活动产生的现金流量</t>
+  </si>
+  <si>
+    <t>吸收投资收到的现金</t>
+  </si>
+  <si>
+    <t>19,491,299,493.42</t>
+  </si>
+  <si>
+    <t>14,253,822,653.98</t>
+  </si>
+  <si>
+    <t>其中：子公司吸收少数股东投资收到的现金</t>
+  </si>
+  <si>
+    <t>取得借款收到的现金</t>
+  </si>
+  <si>
+    <t>96,052,992,340.52</t>
+  </si>
+  <si>
+    <t>94,575,766,875.15</t>
+  </si>
+  <si>
+    <t>发行债券所收到的现金</t>
+  </si>
+  <si>
+    <t>38,982,789,782.99</t>
+  </si>
+  <si>
+    <t>10,620,400,000.00</t>
+  </si>
+  <si>
+    <t>收到的其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t>55(5)</t>
+  </si>
+  <si>
+    <t>14,780,756,175.56</t>
+  </si>
+  <si>
+    <t>4,324,560,000.00</t>
+  </si>
+  <si>
+    <t>筹资活动现金流入小计</t>
+  </si>
+  <si>
+    <t>169,307,837,792.49</t>
+  </si>
+  <si>
+    <t>123,774,549,529.13</t>
+  </si>
+  <si>
+    <t>归还投资支付的现金</t>
+  </si>
+  <si>
+    <t>7,587,413,552.19</t>
+  </si>
+  <si>
+    <t>8,120,957,372.03</t>
+  </si>
+  <si>
+    <t>偿还债务支付的现金</t>
+  </si>
+  <si>
+    <t>73,854,371,223.96</t>
+  </si>
+  <si>
+    <t>41,254,319,676.17</t>
+  </si>
+  <si>
+    <t>分配股利或偿付利息支付的现金</t>
+  </si>
+  <si>
+    <t>40,249,338,583.88</t>
+  </si>
+  <si>
+    <t>19,134,376,263.23</t>
+  </si>
+  <si>
+    <t>其中：子公司支付给少数股东的股利、利润</t>
+  </si>
+  <si>
+    <t>16,350,151,123.76</t>
+  </si>
+  <si>
+    <t>3,201,890,558.24</t>
+  </si>
+  <si>
+    <t>支付的其他与筹资活动有关的现金</t>
+  </si>
+  <si>
+    <t>2,819,066,338.38</t>
+  </si>
+  <si>
+    <t>筹资活动现金流出小计</t>
+  </si>
+  <si>
+    <t>124,510,189,698.41</t>
+  </si>
+  <si>
+    <t>68,509,653,311.43</t>
+  </si>
+  <si>
+    <t>筹资活动产生的现金流量净额</t>
+  </si>
+  <si>
+    <t>44,797,648,094.08</t>
+  </si>
+  <si>
+    <t>55,264,896,217.70</t>
+  </si>
+  <si>
+    <t>四、汇率变动对现金及现金等价物的影响</t>
+  </si>
+  <si>
+    <t>290,760,714.61</t>
+  </si>
+  <si>
+    <t>(1,138,504,966.08)</t>
+  </si>
+  <si>
+    <t>五、现金及现金等价物净增加额</t>
+  </si>
+  <si>
+    <t>56(2)</t>
+  </si>
+  <si>
+    <t>加：年初现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t>六、年末现金及现金等价物余额</t>
+  </si>
+  <si>
+    <t>附注</t>
+  </si>
+  <si>
+    <t>归属于母公司股东权益股本</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>一、本年年初余额</t>
+  </si>
+  <si>
+    <t>加：会计政策变更</t>
+  </si>
+  <si>
+    <t>三、35</t>
+  </si>
+  <si>
+    <t>(1,896,063.11)</t>
+  </si>
+  <si>
+    <t>2,208,759,472.58</t>
+  </si>
+  <si>
+    <t>2,206,863,409.47</t>
+  </si>
+  <si>
+    <t>449,530,445.29</t>
+  </si>
+  <si>
+    <t>2,656,393,854.76</t>
+  </si>
+  <si>
+    <t>其中：新金融工具准则影响</t>
+  </si>
+  <si>
+    <t>1,896,063.11</t>
+  </si>
+  <si>
+    <t>新收入准则影响</t>
+  </si>
+  <si>
+    <t>本年年初经调整余额</t>
+  </si>
+  <si>
+    <t>233,081,701.30</t>
+  </si>
+  <si>
+    <t>79,380,610,082.45</t>
+  </si>
+  <si>
+    <t>134,882,178,702.80</t>
+  </si>
+  <si>
+    <t>54,448,154,310.25</t>
+  </si>
+  <si>
+    <t>189,330,333,013.05</t>
+  </si>
+  <si>
+    <t>二、本年增减变动金额(减少以“()“号填列)</t>
+  </si>
+  <si>
+    <t>(323,635,435.44)</t>
+  </si>
+  <si>
+    <t>11,493,174,212.40</t>
+  </si>
+  <si>
+    <t>12,344,240,665.31</t>
+  </si>
+  <si>
+    <t>20,881,952,841.63</t>
+  </si>
+  <si>
+    <t>25,408,444,142.90</t>
+  </si>
+  <si>
+    <t>46,290,396,984.53</t>
+  </si>
+  <si>
+    <t>(一)综合收益总额</t>
+  </si>
+  <si>
+    <t>(二)股东投入和减少资本</t>
+  </si>
+  <si>
+    <t>17,858,689,332.22</t>
+  </si>
+  <si>
+    <t>17,535,053,896.78</t>
+  </si>
+  <si>
+    <t>1、股东投入的普通股</t>
+  </si>
+  <si>
+    <t>28,110,101,487.30</t>
+  </si>
+  <si>
+    <t>2、股东减少资本</t>
+  </si>
+  <si>
+    <t>(10,251,412,155.08)</t>
+  </si>
+  <si>
+    <t>3、其他</t>
+  </si>
+  <si>
+    <t>五、36</t>
+  </si>
+  <si>
+    <t>(三)利润分配</t>
+  </si>
+  <si>
+    <t>(21,428,411,013.30)</t>
+  </si>
+  <si>
+    <t>(9,935,236,800.90)</t>
+  </si>
+  <si>
+    <t>(7,588,428,552.63)</t>
+  </si>
+  <si>
+    <t>(17,523,665,353.53)</t>
+  </si>
+  <si>
+    <t>1、提取盈余公积</t>
+  </si>
+  <si>
+    <t>五、38</t>
+  </si>
+  <si>
+    <t>(11,493,174,212.40)</t>
+  </si>
+  <si>
+    <t>2、对股东的分配</t>
+  </si>
+  <si>
+    <t>五、39</t>
+  </si>
+  <si>
+    <t>三、本年年末余额</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -34,7 +1737,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -47,18 +1795,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,14 +1835,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -109,15 +1850,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,47 +1873,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,7 +1895,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,7 +1925,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,13 +2003,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,19 +2039,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,49 +2051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,61 +2063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,17 +2083,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -400,6 +2097,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +2140,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -441,15 +2162,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,160 +2180,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -974,13 +2677,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.6666666666667" style="1" customWidth="true"/>
     <col min="2" max="2" width="14" style="1" customWidth="true"/>
@@ -988,7 +2691,224 @@
     <col min="5" max="5" width="15.5555555555556" style="1" customWidth="true"/>
     <col min="6" max="16384" width="8.88888888888889" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -997,20 +2917,227 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="true"/>
     <col min="2" max="2" width="19" style="1" customWidth="true"/>
     <col min="3" max="3" width="17.8888888888889" style="1" customWidth="true"/>
     <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:3">
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1019,19 +3146,2471 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="26" style="1" customWidth="true"/>
+    <col min="2" max="5" width="17.7777777777778" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="1">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="1">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="1">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="1">
+        <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="1">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" s="1">
+        <v>24</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="1">
+        <v>25</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="1">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B36" s="1">
+        <v>27</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="1">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="1">
+        <v>29</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B39" s="1">
+        <v>30</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" s="1">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B43" s="1">
+        <v>32</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B44" s="1">
+        <v>33</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B45" s="1">
+        <v>34</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B46" s="1">
+        <v>21</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="1">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="1">
+        <v>36</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" s="1">
+        <v>37</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="1">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B54" s="1">
+        <v>39</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="37" style="1" customWidth="true"/>
+    <col min="2" max="4" width="17.7777777777778" style="1" customWidth="true"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="1">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" s="1">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="1">
+        <v>51</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="1">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B28" s="1">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B29" s="1">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.06</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B30" s="1">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="59" style="1" customWidth="true"/>
+    <col min="2" max="3" width="17.8888888888889" style="1" customWidth="true"/>
+    <col min="4" max="4" width="16.6666666666667" style="1" customWidth="true"/>
+    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26" style="1" customWidth="true"/>
-    <col min="2" max="4" width="17.7777777777778" style="1" customWidth="true"/>
-    <col min="5" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="34.1111111111111" style="1" customWidth="true"/>
+    <col min="2" max="2" width="6.55555555555556" style="1" customWidth="true"/>
+    <col min="3" max="3" width="22.3333333333333" style="1" customWidth="true"/>
+    <col min="4" max="4" width="15" style="1" customWidth="true"/>
+    <col min="5" max="5" width="16.7777777777778" style="1" customWidth="true"/>
+    <col min="6" max="7" width="17.8888888888889" style="1" customWidth="true"/>
+    <col min="8" max="8" width="17.7777777777778" style="1" customWidth="true"/>
+    <col min="9" max="10" width="17.8888888888889" style="1" customWidth="true"/>
+    <col min="11" max="16384" width="8.88888888888889" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
